--- a/DataCleaner/DataSource/final/imf_ppp/2021.xlsx
+++ b/DataCleaner/DataSource/final/imf_ppp/2021.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,220 +446,200 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Arabic</t>
+          <t>English</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.034972813995454</v>
+        <v>21.46209771371048</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Bengali</t>
+          <t>Chinese</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7971354422928657</v>
+        <v>19.89828932502047</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Chinese</t>
+          <t>Spanish</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.89828932502047</v>
+        <v>6.231502190744767</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Dutch</t>
+          <t>German</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.199799918524638</v>
+        <v>4.14103073465511</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>English</t>
+          <t>Arabic</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>21.46209771371048</v>
+        <v>4.034972813995454</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>French</t>
+          <t>Japanese</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.515820036063209</v>
+        <v>3.837450331619462</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>German</t>
+          <t>Russian</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.14103073465511</v>
+        <v>3.21540206833566</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Italian</t>
+          <t>Malay-Indonesian</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.863617573000346</v>
+        <v>3.081590736296651</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Japanese</t>
+          <t>Portuguese</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.837450331619462</v>
+        <v>2.800069055625781</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Korean</t>
+          <t>French</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.709320099226728</v>
+        <v>2.515820036063209</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Malay-Indonesian</t>
+          <t>Turkish</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3.081590736296651</v>
+        <v>2.005946261350123</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Persian</t>
+          <t>Italian</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9842069567491988</v>
+        <v>1.863617573000346</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Polish</t>
+          <t>Korean</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9863609730379833</v>
+        <v>1.709320099226728</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Portuguese</t>
+          <t>Dutch</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2.800069055625781</v>
+        <v>1.199799918524638</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Russian</t>
+          <t>Polish</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3.21540206833566</v>
+        <v>0.9863609730379833</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Spanish</t>
+          <t>Persian</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>6.231502190744767</v>
+        <v>0.9842069567491988</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Swedish</t>
+          <t>Thai</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.4241972021518933</v>
+        <v>0.9124591486517672</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Thai</t>
+          <t>Urdu</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9124591486517672</v>
+        <v>0.9049099503213938</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Turkish</t>
+          <t>Bengali</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.005946261350123</v>
+        <v>0.7971354422928657</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Urdu</t>
+          <t>Vietnamese</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9049099503213938</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Uzbek</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>0.20318471916776</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>Vietnamese</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
         <v>0.7728321078506356</v>
       </c>
     </row>
